--- a/data/pca/factorExposure/factorExposure_2015-01-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005892164992717812</v>
+        <v>0.007713155059184987</v>
       </c>
       <c r="C2">
-        <v>0.04048082289014776</v>
+        <v>0.05333922992791258</v>
       </c>
       <c r="D2">
-        <v>-0.1227563124471361</v>
+        <v>0.01836542987044512</v>
       </c>
       <c r="E2">
-        <v>0.04714250958862201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1167846680850355</v>
+      </c>
+      <c r="F2">
+        <v>-0.1401418003863193</v>
+      </c>
+      <c r="G2">
+        <v>0.06517428408558172</v>
+      </c>
+      <c r="H2">
+        <v>0.02352127309267282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0285652967915392</v>
+        <v>0.01689620710864848</v>
       </c>
       <c r="C4">
-        <v>0.1191255340597961</v>
+        <v>0.1374299902162438</v>
       </c>
       <c r="D4">
-        <v>-0.0779029522293542</v>
+        <v>-0.002022108713841889</v>
       </c>
       <c r="E4">
-        <v>0.03164313699965701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.08210801998879431</v>
+      </c>
+      <c r="F4">
+        <v>-0.1052024610676004</v>
+      </c>
+      <c r="G4">
+        <v>-0.06463476735520472</v>
+      </c>
+      <c r="H4">
+        <v>0.03145580990433102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01833266679277788</v>
+        <v>0.03060112901312471</v>
       </c>
       <c r="C6">
-        <v>0.03936972955286738</v>
+        <v>0.05001154789661518</v>
       </c>
       <c r="D6">
-        <v>-0.07282911537773613</v>
+        <v>-0.005160859108904039</v>
       </c>
       <c r="E6">
-        <v>0.06794302639179763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1072089302348371</v>
+      </c>
+      <c r="F6">
+        <v>-0.06645884012768666</v>
+      </c>
+      <c r="G6">
+        <v>0.006986212037501044</v>
+      </c>
+      <c r="H6">
+        <v>-0.04836439917345609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009728498902330485</v>
+        <v>0.005887575683992369</v>
       </c>
       <c r="C7">
-        <v>0.03340970025596785</v>
+        <v>0.05155250911514344</v>
       </c>
       <c r="D7">
-        <v>-0.06079397011857181</v>
+        <v>-0.006734636365377959</v>
       </c>
       <c r="E7">
-        <v>0.08977622875462778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.09281089594110191</v>
+      </c>
+      <c r="F7">
+        <v>-0.0174938588483029</v>
+      </c>
+      <c r="G7">
+        <v>-0.02044251450285605</v>
+      </c>
+      <c r="H7">
+        <v>-0.01240668221556374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.004455177704047898</v>
+        <v>-0.006223793469296642</v>
       </c>
       <c r="C8">
-        <v>0.04156940042589609</v>
+        <v>0.05070964494296314</v>
       </c>
       <c r="D8">
-        <v>-0.05922419210284582</v>
+        <v>-0.01842939555300983</v>
       </c>
       <c r="E8">
-        <v>0.07192975034159096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.06311246966075897</v>
+      </c>
+      <c r="F8">
+        <v>-0.08284053845768045</v>
+      </c>
+      <c r="G8">
+        <v>-0.01358283410007028</v>
+      </c>
+      <c r="H8">
+        <v>0.05599676352233137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0149070902252301</v>
+        <v>0.009664650385038432</v>
       </c>
       <c r="C9">
-        <v>0.09661668931907774</v>
+        <v>0.1096829507789908</v>
       </c>
       <c r="D9">
-        <v>-0.07331246463362634</v>
+        <v>0.0008703470163336519</v>
       </c>
       <c r="E9">
-        <v>0.03700660489644907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.07260157137778718</v>
+      </c>
+      <c r="F9">
+        <v>-0.07428086636099113</v>
+      </c>
+      <c r="G9">
+        <v>-0.02486181240485882</v>
+      </c>
+      <c r="H9">
+        <v>-0.009942402098555026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.2300641198234891</v>
+        <v>0.2443431956233457</v>
       </c>
       <c r="C10">
-        <v>-0.09305123993189787</v>
+        <v>-0.07952497421782183</v>
       </c>
       <c r="D10">
-        <v>0.03955644585641276</v>
+        <v>0.0001930528984313172</v>
       </c>
       <c r="E10">
-        <v>-0.04019855265213245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02638828945297208</v>
+      </c>
+      <c r="F10">
+        <v>-0.0193502370346943</v>
+      </c>
+      <c r="G10">
+        <v>-0.01237084757784679</v>
+      </c>
+      <c r="H10">
+        <v>-0.01499832652768717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.00270987556280204</v>
+        <v>0.00962810093485241</v>
       </c>
       <c r="C11">
-        <v>0.04675579173446951</v>
+        <v>0.06596379001035674</v>
       </c>
       <c r="D11">
-        <v>-0.04612009576707859</v>
+        <v>-0.007616870302667713</v>
       </c>
       <c r="E11">
-        <v>0.0395141967714942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.05857410725221852</v>
+      </c>
+      <c r="F11">
+        <v>-0.006897710260105591</v>
+      </c>
+      <c r="G11">
+        <v>-0.01385412609649344</v>
+      </c>
+      <c r="H11">
+        <v>-0.007907253576755723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.004621586145674412</v>
+        <v>0.01056605501797533</v>
       </c>
       <c r="C12">
-        <v>0.04994638105863226</v>
+        <v>0.05713420832756939</v>
       </c>
       <c r="D12">
-        <v>-0.04692791665823014</v>
+        <v>-0.001436443616191473</v>
       </c>
       <c r="E12">
-        <v>0.03377505429081804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04996528281583476</v>
+      </c>
+      <c r="F12">
+        <v>-0.001687953375861897</v>
+      </c>
+      <c r="G12">
+        <v>0.01602080146756968</v>
+      </c>
+      <c r="H12">
+        <v>-0.01906419301907645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01280963907472565</v>
+        <v>0.003827463928341733</v>
       </c>
       <c r="C13">
-        <v>0.05645067001419666</v>
+        <v>0.08519895783540617</v>
       </c>
       <c r="D13">
-        <v>-0.1095697547558237</v>
+        <v>0.0191794374122608</v>
       </c>
       <c r="E13">
-        <v>0.08251819166297875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1320713540720312</v>
+      </c>
+      <c r="F13">
+        <v>-0.08174844935346259</v>
+      </c>
+      <c r="G13">
+        <v>0.09317720956333299</v>
+      </c>
+      <c r="H13">
+        <v>-0.04718235914142647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01010126915325535</v>
+        <v>0.002971707730528474</v>
       </c>
       <c r="C14">
-        <v>0.02294776974929389</v>
+        <v>0.04767673167421611</v>
       </c>
       <c r="D14">
-        <v>-0.05390749163849178</v>
+        <v>-0.02121486194197269</v>
       </c>
       <c r="E14">
-        <v>0.06818196139936288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.1048080516852503</v>
+      </c>
+      <c r="F14">
+        <v>-0.03958155857166491</v>
+      </c>
+      <c r="G14">
+        <v>0.03427816495837613</v>
+      </c>
+      <c r="H14">
+        <v>-0.03266242756343492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003139417778789216</v>
+        <v>-0.005083908191575715</v>
       </c>
       <c r="C15">
-        <v>0.02154353159550685</v>
+        <v>0.04248241697747878</v>
       </c>
       <c r="D15">
-        <v>-0.06292196739514173</v>
+        <v>0.005700767067269423</v>
       </c>
       <c r="E15">
-        <v>0.02914768443924907</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.07464925282867538</v>
+      </c>
+      <c r="F15">
+        <v>-0.02570067836164669</v>
+      </c>
+      <c r="G15">
+        <v>7.597525193175914e-05</v>
+      </c>
+      <c r="H15">
+        <v>0.01286482930421687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.004269989537373734</v>
+        <v>0.009102322754069586</v>
       </c>
       <c r="C16">
-        <v>0.04318853712132262</v>
+        <v>0.05708373086407913</v>
       </c>
       <c r="D16">
-        <v>-0.04029631759346252</v>
+        <v>-0.003194667355850687</v>
       </c>
       <c r="E16">
-        <v>0.04184702347450784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.05061260357271341</v>
+      </c>
+      <c r="F16">
+        <v>0.000688090721658551</v>
+      </c>
+      <c r="G16">
+        <v>-0.009475625753953231</v>
+      </c>
+      <c r="H16">
+        <v>-0.02542483605266509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002667753690289139</v>
+        <v>0.0008905892815353917</v>
       </c>
       <c r="C19">
-        <v>0.02378128927107456</v>
+        <v>0.01713121605528322</v>
       </c>
       <c r="D19">
-        <v>-0.03399114214461955</v>
+        <v>0.00723451534204933</v>
       </c>
       <c r="E19">
-        <v>-0.01149230741278701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.00770679106786671</v>
+      </c>
+      <c r="F19">
+        <v>0.002330211519409353</v>
+      </c>
+      <c r="G19">
+        <v>0.02314867110228465</v>
+      </c>
+      <c r="H19">
+        <v>0.02551525465341321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006708377527180324</v>
+        <v>0.001790932384166405</v>
       </c>
       <c r="C20">
-        <v>0.03933059623030295</v>
+        <v>0.06032418411609404</v>
       </c>
       <c r="D20">
-        <v>-0.05405441329974889</v>
+        <v>0.003352625331057876</v>
       </c>
       <c r="E20">
-        <v>0.04103846965671382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.07584413324171288</v>
+      </c>
+      <c r="F20">
+        <v>-0.02017591921055905</v>
+      </c>
+      <c r="G20">
+        <v>-0.02074398223831888</v>
+      </c>
+      <c r="H20">
+        <v>-0.02073129862198633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002788189166813445</v>
+        <v>0.003968700859747554</v>
       </c>
       <c r="C21">
-        <v>0.0631034116826545</v>
+        <v>0.07249827553195987</v>
       </c>
       <c r="D21">
-        <v>-0.07766520511583812</v>
+        <v>0.0005305829433421507</v>
       </c>
       <c r="E21">
-        <v>0.05985163747697142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.08131423865008733</v>
+      </c>
+      <c r="F21">
+        <v>-0.0906742931414274</v>
+      </c>
+      <c r="G21">
+        <v>0.1063700356206765</v>
+      </c>
+      <c r="H21">
+        <v>-0.02057894842377533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01115262787647604</v>
+        <v>-0.01263077600339632</v>
       </c>
       <c r="C22">
-        <v>0.06963724401661864</v>
+        <v>0.1001879733604766</v>
       </c>
       <c r="D22">
-        <v>-0.184838201670896</v>
+        <v>0.0764756265565588</v>
       </c>
       <c r="E22">
-        <v>0.05884975465119682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.2148657641330164</v>
+      </c>
+      <c r="F22">
+        <v>-0.2602597555496508</v>
+      </c>
+      <c r="G22">
+        <v>-0.08446095916488013</v>
+      </c>
+      <c r="H22">
+        <v>0.2061499014325002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01140777153104786</v>
+        <v>-0.009557012635671179</v>
       </c>
       <c r="C23">
-        <v>0.07085582232407303</v>
+        <v>0.103126496183201</v>
       </c>
       <c r="D23">
-        <v>-0.1841946371913865</v>
+        <v>0.0792442402752275</v>
       </c>
       <c r="E23">
-        <v>0.05838012890026208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.2134748971818825</v>
+      </c>
+      <c r="F23">
+        <v>-0.2577945586166792</v>
+      </c>
+      <c r="G23">
+        <v>-0.07983391965563072</v>
+      </c>
+      <c r="H23">
+        <v>0.1978099928941087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.003712243356151067</v>
+        <v>0.009730683881786821</v>
       </c>
       <c r="C24">
-        <v>0.06610588199015234</v>
+        <v>0.0743174727148694</v>
       </c>
       <c r="D24">
-        <v>-0.05208781315220192</v>
+        <v>-0.01549506233066568</v>
       </c>
       <c r="E24">
-        <v>0.04902823539842865</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05917617141140072</v>
+      </c>
+      <c r="F24">
+        <v>-0.003046908099113827</v>
+      </c>
+      <c r="G24">
+        <v>-0.0009241355592135825</v>
+      </c>
+      <c r="H24">
+        <v>-0.009137164661440281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.006117620787024952</v>
+        <v>0.0136921336860858</v>
       </c>
       <c r="C25">
-        <v>0.05852214073232402</v>
+        <v>0.06818062602403849</v>
       </c>
       <c r="D25">
-        <v>-0.04129767627849334</v>
+        <v>-0.003072752430507108</v>
       </c>
       <c r="E25">
-        <v>0.02510205115617849</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.04451715797020337</v>
+      </c>
+      <c r="F25">
+        <v>-0.006519988804661547</v>
+      </c>
+      <c r="G25">
+        <v>-0.009721623270173681</v>
+      </c>
+      <c r="H25">
+        <v>-0.01255714338042623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.004936963870871718</v>
+        <v>0.01633901333490133</v>
       </c>
       <c r="C26">
-        <v>0.02825609059733709</v>
+        <v>0.04633892929999306</v>
       </c>
       <c r="D26">
-        <v>-0.04649683396178127</v>
+        <v>-0.02864430449299541</v>
       </c>
       <c r="E26">
-        <v>0.04867020651751808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0677891666869825</v>
+      </c>
+      <c r="F26">
+        <v>-0.04917103389624797</v>
+      </c>
+      <c r="G26">
+        <v>0.01333525488746599</v>
+      </c>
+      <c r="H26">
+        <v>0.006293066822805279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.3146033401843973</v>
+        <v>0.316067437964427</v>
       </c>
       <c r="C28">
-        <v>-0.09614723280139925</v>
+        <v>-0.08944865016530272</v>
       </c>
       <c r="D28">
-        <v>0.02982106693608116</v>
+        <v>0.01521964572839481</v>
       </c>
       <c r="E28">
-        <v>-0.04560281705187362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05083985106452016</v>
+      </c>
+      <c r="F28">
+        <v>-0.0692867564498325</v>
+      </c>
+      <c r="G28">
+        <v>-0.009601574942579879</v>
+      </c>
+      <c r="H28">
+        <v>0.0710782163967741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0009407487714934527</v>
+        <v>0.003693061640785926</v>
       </c>
       <c r="C29">
-        <v>0.02978224264590371</v>
+        <v>0.05503492515371007</v>
       </c>
       <c r="D29">
-        <v>-0.06081581060696011</v>
+        <v>-0.01668520920998254</v>
       </c>
       <c r="E29">
-        <v>0.08082274391716178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1170805838795886</v>
+      </c>
+      <c r="F29">
+        <v>-0.0443016638008721</v>
+      </c>
+      <c r="G29">
+        <v>0.03663009805343258</v>
+      </c>
+      <c r="H29">
+        <v>-0.05989394632399813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.009804864582929755</v>
+        <v>0.01539267332966319</v>
       </c>
       <c r="C30">
-        <v>0.1007019378642687</v>
+        <v>0.120440480771971</v>
       </c>
       <c r="D30">
-        <v>-0.13486486681606</v>
+        <v>-0.005970736185760601</v>
       </c>
       <c r="E30">
-        <v>0.09185106564123566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1435615048110874</v>
+      </c>
+      <c r="F30">
+        <v>-0.04321502661253507</v>
+      </c>
+      <c r="G30">
+        <v>-0.02476092072946553</v>
+      </c>
+      <c r="H30">
+        <v>-0.001633865650896317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.006506048568486422</v>
+        <v>0.00764768017683818</v>
       </c>
       <c r="C31">
-        <v>0.09914951197363203</v>
+        <v>0.1031905572721082</v>
       </c>
       <c r="D31">
-        <v>-0.03173769223006678</v>
+        <v>-0.009924262904667479</v>
       </c>
       <c r="E31">
-        <v>0.02606009511884043</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01998682305574275</v>
+      </c>
+      <c r="F31">
+        <v>-0.00181701424550466</v>
+      </c>
+      <c r="G31">
+        <v>0.01117544577889031</v>
+      </c>
+      <c r="H31">
+        <v>0.0288613129334271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.009722042052655203</v>
+        <v>0.01208784464653041</v>
       </c>
       <c r="C32">
-        <v>0.06016875024384816</v>
+        <v>0.06538506235802818</v>
       </c>
       <c r="D32">
-        <v>-0.08352326757392334</v>
+        <v>0.01207618584031353</v>
       </c>
       <c r="E32">
-        <v>0.004013102693535077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.05819989709319541</v>
+      </c>
+      <c r="F32">
+        <v>-0.1054439455732409</v>
+      </c>
+      <c r="G32">
+        <v>0.03571632015232207</v>
+      </c>
+      <c r="H32">
+        <v>-0.005326246405639687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.002676306137856645</v>
+        <v>0.006897602502396956</v>
       </c>
       <c r="C33">
-        <v>0.05864207138938312</v>
+        <v>0.08286419693740189</v>
       </c>
       <c r="D33">
-        <v>-0.07588654842090767</v>
+        <v>0.006280756736581745</v>
       </c>
       <c r="E33">
-        <v>0.04163556354686496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.09380374313454191</v>
+      </c>
+      <c r="F33">
+        <v>-0.03945681368255168</v>
+      </c>
+      <c r="G33">
+        <v>0.003230904900153311</v>
+      </c>
+      <c r="H33">
+        <v>-0.007990658376733878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.002237867889685143</v>
+        <v>0.01003838408363745</v>
       </c>
       <c r="C34">
-        <v>0.067184729297932</v>
+        <v>0.06672313879270438</v>
       </c>
       <c r="D34">
-        <v>-0.06293501770566695</v>
+        <v>-0.01115435149409731</v>
       </c>
       <c r="E34">
-        <v>0.04646092596582693</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.05073156692173224</v>
+      </c>
+      <c r="F34">
+        <v>0.02359453649813418</v>
+      </c>
+      <c r="G34">
+        <v>0.0175575957919425</v>
+      </c>
+      <c r="H34">
+        <v>-0.0002098515685626128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.001040807953229381</v>
+        <v>0.004411490869687433</v>
       </c>
       <c r="C35">
-        <v>0.001726184880703644</v>
+        <v>0.02271994043940084</v>
       </c>
       <c r="D35">
-        <v>-0.005944922760087836</v>
+        <v>0.001443599277526279</v>
       </c>
       <c r="E35">
-        <v>0.00361255474572088</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.03690866877004984</v>
+      </c>
+      <c r="F35">
+        <v>-0.02466824491846133</v>
+      </c>
+      <c r="G35">
+        <v>0.001850168786284322</v>
+      </c>
+      <c r="H35">
+        <v>-0.02743468887115982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0009361627191778036</v>
+        <v>0.008775032252835397</v>
       </c>
       <c r="C36">
-        <v>0.02644055276977548</v>
+        <v>0.03749918490262955</v>
       </c>
       <c r="D36">
-        <v>-0.03734430425079737</v>
+        <v>-0.0145598254024263</v>
       </c>
       <c r="E36">
-        <v>0.03810683318197285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.05950153157522762</v>
+      </c>
+      <c r="F36">
+        <v>-0.04949978001918608</v>
+      </c>
+      <c r="G36">
+        <v>0.004644946811615873</v>
+      </c>
+      <c r="H36">
+        <v>-0.004848102956042875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.003823485056391294</v>
+        <v>0.006854131898774313</v>
       </c>
       <c r="C38">
-        <v>0.01850256802554743</v>
+        <v>0.04055405218908889</v>
       </c>
       <c r="D38">
-        <v>-0.06429741668094512</v>
+        <v>0.007431785619552888</v>
       </c>
       <c r="E38">
-        <v>0.014483911430106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.07776711085507747</v>
+      </c>
+      <c r="F38">
+        <v>-0.02252652273192057</v>
+      </c>
+      <c r="G38">
+        <v>-0.02132478059010684</v>
+      </c>
+      <c r="H38">
+        <v>0.05215189111404144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.004060842215742471</v>
+        <v>0.007168730143425178</v>
       </c>
       <c r="C39">
-        <v>0.0763854296456785</v>
+        <v>0.1019875523109453</v>
       </c>
       <c r="D39">
-        <v>-0.1000369516559851</v>
+        <v>-0.02428525014052117</v>
       </c>
       <c r="E39">
-        <v>0.08363401513792537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.1124243042296167</v>
+      </c>
+      <c r="F39">
+        <v>-0.003190674234116819</v>
+      </c>
+      <c r="G39">
+        <v>0.0065831548170537</v>
+      </c>
+      <c r="H39">
+        <v>-0.02929872267801986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0003008968447671745</v>
+        <v>0.00842596899924228</v>
       </c>
       <c r="C40">
-        <v>0.02557570136265629</v>
+        <v>0.04774354454865033</v>
       </c>
       <c r="D40">
-        <v>-0.08649194536345202</v>
+        <v>0.002843815343393776</v>
       </c>
       <c r="E40">
-        <v>0.08038195405117017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1247163964315822</v>
+      </c>
+      <c r="F40">
+        <v>-0.01085045888316724</v>
+      </c>
+      <c r="G40">
+        <v>0.03921593788930968</v>
+      </c>
+      <c r="H40">
+        <v>-0.004893525578945994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.006730711659242075</v>
+        <v>0.01672409616102573</v>
       </c>
       <c r="C41">
-        <v>0.02037642644232406</v>
+        <v>0.03859518322837737</v>
       </c>
       <c r="D41">
-        <v>-0.01332960130184893</v>
+        <v>0.004096541829794529</v>
       </c>
       <c r="E41">
-        <v>0.009445894855708702</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02176021570477901</v>
+      </c>
+      <c r="F41">
+        <v>-0.001194886468122309</v>
+      </c>
+      <c r="G41">
+        <v>-0.001381684644912129</v>
+      </c>
+      <c r="H41">
+        <v>0.007171935220349103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004687295969423647</v>
+        <v>0.00787152712504317</v>
       </c>
       <c r="C43">
-        <v>0.01498444466690108</v>
+        <v>0.03142781778482152</v>
       </c>
       <c r="D43">
-        <v>-0.03155581497154377</v>
+        <v>0.000222869001630037</v>
       </c>
       <c r="E43">
-        <v>0.01310618435192184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.04087163290267481</v>
+      </c>
+      <c r="F43">
+        <v>-0.007220713244650194</v>
+      </c>
+      <c r="G43">
+        <v>-0.007901266557524612</v>
+      </c>
+      <c r="H43">
+        <v>0.008235436408480857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.009301194289396991</v>
+        <v>0.006066473479820072</v>
       </c>
       <c r="C44">
-        <v>0.0559981997674083</v>
+        <v>0.07219573515078272</v>
       </c>
       <c r="D44">
-        <v>-0.08151352993195911</v>
+        <v>-0.01006973324873934</v>
       </c>
       <c r="E44">
-        <v>0.04951869130690886</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.106000203941282</v>
+      </c>
+      <c r="F44">
+        <v>-0.05231192074273651</v>
+      </c>
+      <c r="G44">
+        <v>-0.003980753593200807</v>
+      </c>
+      <c r="H44">
+        <v>0.01950977333419146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.006487131693315409</v>
+        <v>-0.002273388646570164</v>
       </c>
       <c r="C46">
-        <v>0.03898717262279852</v>
+        <v>0.05020395100679775</v>
       </c>
       <c r="D46">
-        <v>-0.06363313638140007</v>
+        <v>-0.01397977401077818</v>
       </c>
       <c r="E46">
-        <v>0.06201880676749435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08164994138156696</v>
+      </c>
+      <c r="F46">
+        <v>-0.03872457282584219</v>
+      </c>
+      <c r="G46">
+        <v>0.01203316210636242</v>
+      </c>
+      <c r="H46">
+        <v>-0.01633782886149996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03304070059447623</v>
+        <v>0.0256332856661341</v>
       </c>
       <c r="C47">
-        <v>0.1303989562568751</v>
+        <v>0.1230218849973613</v>
       </c>
       <c r="D47">
-        <v>-0.04210300908956013</v>
+        <v>0.002805218738453095</v>
       </c>
       <c r="E47">
-        <v>-0.03119528953568404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.001639984979104181</v>
+      </c>
+      <c r="F47">
+        <v>0.01089405567752395</v>
+      </c>
+      <c r="G47">
+        <v>-0.009309936499306549</v>
+      </c>
+      <c r="H47">
+        <v>0.02669380169862096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.000714789512689746</v>
+        <v>0.01115586877379776</v>
       </c>
       <c r="C48">
-        <v>0.03318970411139837</v>
+        <v>0.04595402869581074</v>
       </c>
       <c r="D48">
-        <v>-0.04084152321845508</v>
+        <v>-0.02115880417776529</v>
       </c>
       <c r="E48">
-        <v>0.03657546782178143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0611730122265823</v>
+      </c>
+      <c r="F48">
+        <v>-0.05713211791010944</v>
+      </c>
+      <c r="G48">
+        <v>0.003086685788331322</v>
+      </c>
+      <c r="H48">
+        <v>0.004682604507794936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002514552433422706</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006153005367438562</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002391191937501271</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.002797072405152577</v>
+      </c>
+      <c r="F49">
+        <v>0.01338182580488999</v>
+      </c>
+      <c r="G49">
+        <v>0.002177504633993072</v>
+      </c>
+      <c r="H49">
+        <v>-0.01482291904709538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.008603146095776181</v>
+        <v>0.00900933294171951</v>
       </c>
       <c r="C50">
-        <v>0.06550200645975385</v>
+        <v>0.07771059590482758</v>
       </c>
       <c r="D50">
-        <v>-0.04418935423210956</v>
+        <v>0.002852981245840104</v>
       </c>
       <c r="E50">
-        <v>0.0175923630066324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03528615838217779</v>
+      </c>
+      <c r="F50">
+        <v>-0.01245791875857368</v>
+      </c>
+      <c r="G50">
+        <v>-0.004698647065554787</v>
+      </c>
+      <c r="H50">
+        <v>0.02707813230593376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.003564613401585449</v>
+        <v>-0.005942537191161197</v>
       </c>
       <c r="C51">
-        <v>0.01538422321417878</v>
+        <v>0.02641810739395079</v>
       </c>
       <c r="D51">
-        <v>-0.05244718145894058</v>
+        <v>-0.02175084807880908</v>
       </c>
       <c r="E51">
-        <v>0.06373576886808215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05771052635568147</v>
+      </c>
+      <c r="F51">
+        <v>-0.0525970031343798</v>
+      </c>
+      <c r="G51">
+        <v>0.01818485141004013</v>
+      </c>
+      <c r="H51">
+        <v>0.004782809679463144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.06292308665923842</v>
+        <v>0.05457265003616189</v>
       </c>
       <c r="C53">
-        <v>0.1658502283847046</v>
+        <v>0.1660117598847073</v>
       </c>
       <c r="D53">
-        <v>0.008859860973957906</v>
+        <v>-0.02145558170248182</v>
       </c>
       <c r="E53">
-        <v>-0.02091494030918605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.06043479241431467</v>
+      </c>
+      <c r="F53">
+        <v>0.006766001180043327</v>
+      </c>
+      <c r="G53">
+        <v>0.012543157513178</v>
+      </c>
+      <c r="H53">
+        <v>0.03587009144750893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.000825183759564016</v>
+        <v>0.01029022035351585</v>
       </c>
       <c r="C54">
-        <v>0.03557203764781373</v>
+        <v>0.05282838881553988</v>
       </c>
       <c r="D54">
-        <v>-0.07434333717344302</v>
+        <v>0.007169046878502229</v>
       </c>
       <c r="E54">
-        <v>0.03977113239164283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.07808092549515119</v>
+      </c>
+      <c r="F54">
+        <v>-0.02211418735652046</v>
+      </c>
+      <c r="G54">
+        <v>0.00108221185103323</v>
+      </c>
+      <c r="H54">
+        <v>0.01070750885131309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0454228236535477</v>
+        <v>0.03421233927686939</v>
       </c>
       <c r="C55">
-        <v>0.1258900475239992</v>
+        <v>0.1209728672636182</v>
       </c>
       <c r="D55">
-        <v>0.007140010502621908</v>
+        <v>-0.03965038144868673</v>
       </c>
       <c r="E55">
-        <v>-0.004473221178354604</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.04560817495520704</v>
+      </c>
+      <c r="F55">
+        <v>0.028599811402795</v>
+      </c>
+      <c r="G55">
+        <v>0.02395192838363611</v>
+      </c>
+      <c r="H55">
+        <v>0.03951764293353854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.07155562944498123</v>
+        <v>0.05264599893009703</v>
       </c>
       <c r="C56">
-        <v>0.1881486859887909</v>
+        <v>0.18747414264302</v>
       </c>
       <c r="D56">
-        <v>-0.01430186090699135</v>
+        <v>-0.02935077826124481</v>
       </c>
       <c r="E56">
-        <v>-0.04010655911636309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.07136358886628637</v>
+      </c>
+      <c r="F56">
+        <v>0.03668823627235782</v>
+      </c>
+      <c r="G56">
+        <v>0.05445909312888576</v>
+      </c>
+      <c r="H56">
+        <v>0.1145093468900379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2176,331 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.007938510458828315</v>
+        <v>0.007926103445483614</v>
       </c>
       <c r="C58">
-        <v>0.05837918804764394</v>
+        <v>0.1058034863569589</v>
       </c>
       <c r="D58">
-        <v>-0.173617785277224</v>
+        <v>0.07185516371977445</v>
       </c>
       <c r="E58">
-        <v>0.03322022474607851</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.1977162655321828</v>
+      </c>
+      <c r="F58">
+        <v>-0.2682170624079477</v>
+      </c>
+      <c r="G58">
+        <v>-0.05086885364229325</v>
+      </c>
+      <c r="H58">
+        <v>0.1163191264471717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2349754260729143</v>
+        <v>0.2653776050206679</v>
       </c>
       <c r="C59">
-        <v>-0.05094979314639295</v>
+        <v>-0.04193069747625172</v>
       </c>
       <c r="D59">
-        <v>-0.05420831484198617</v>
+        <v>0.03001746519971695</v>
       </c>
       <c r="E59">
-        <v>-0.0315756671529316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02065503845462</v>
+      </c>
+      <c r="F59">
+        <v>-0.0430258713827835</v>
+      </c>
+      <c r="G59">
+        <v>0.03383190804756918</v>
+      </c>
+      <c r="H59">
+        <v>0.005762056309008462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1346295886326307</v>
+        <v>0.1481672223400781</v>
       </c>
       <c r="C60">
-        <v>0.1424184617014496</v>
+        <v>0.1628133176217387</v>
       </c>
       <c r="D60">
-        <v>-0.1022502607723664</v>
+        <v>-0.0191435323678123</v>
       </c>
       <c r="E60">
-        <v>0.140937139194823</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1150976670718888</v>
+      </c>
+      <c r="F60">
+        <v>0.2202617561487174</v>
+      </c>
+      <c r="G60">
+        <v>0.01803578213496381</v>
+      </c>
+      <c r="H60">
+        <v>-0.2352929243944032</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.008882808451889782</v>
+        <v>0.01343512709599437</v>
       </c>
       <c r="C61">
-        <v>0.06753736772405747</v>
+        <v>0.08896174967387213</v>
       </c>
       <c r="D61">
-        <v>-0.07038197068847886</v>
+        <v>-0.01295240313422507</v>
       </c>
       <c r="E61">
-        <v>0.03688046631743905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0771439964792309</v>
+      </c>
+      <c r="F61">
+        <v>0.006014904972020351</v>
+      </c>
+      <c r="G61">
+        <v>0.009471096300456137</v>
+      </c>
+      <c r="H61">
+        <v>-0.004974684456082568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-9.062890037680282e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0005855376093456292</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.0001381017077308229</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.0003437636843003535</v>
+      </c>
+      <c r="F62">
+        <v>-0.002132344098080233</v>
+      </c>
+      <c r="G62">
+        <v>3.486225222867454e-05</v>
+      </c>
+      <c r="H62">
+        <v>0.0009527378779403629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0008412780927161809</v>
+        <v>0.01555678656544639</v>
       </c>
       <c r="C63">
-        <v>0.04396862853113973</v>
+        <v>0.06149245546089351</v>
       </c>
       <c r="D63">
-        <v>-0.06137353259844018</v>
+        <v>-0.02990346675973604</v>
       </c>
       <c r="E63">
-        <v>0.06193765787499935</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.081151315096278</v>
+      </c>
+      <c r="F63">
+        <v>-0.01449726202253763</v>
+      </c>
+      <c r="G63">
+        <v>0.002585153416190848</v>
+      </c>
+      <c r="H63">
+        <v>-0.01080019433824815</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02241107383264972</v>
+        <v>0.0140241373215755</v>
       </c>
       <c r="C64">
-        <v>0.1099377043638738</v>
+        <v>0.105934856879322</v>
       </c>
       <c r="D64">
-        <v>-0.01054325892506787</v>
+        <v>-0.02276876562948614</v>
       </c>
       <c r="E64">
-        <v>0.04194907224730247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01581558006846344</v>
+      </c>
+      <c r="F64">
+        <v>-0.01192392614282218</v>
+      </c>
+      <c r="G64">
+        <v>-0.03389060553355856</v>
+      </c>
+      <c r="H64">
+        <v>-0.02830437113741738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01956915368632481</v>
+        <v>0.02589654459127687</v>
       </c>
       <c r="C65">
-        <v>0.03627365889539603</v>
+        <v>0.05977978489576662</v>
       </c>
       <c r="D65">
-        <v>-0.08328479618573102</v>
+        <v>0.0190447948899421</v>
       </c>
       <c r="E65">
-        <v>0.04871265309459605</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.1146580544682666</v>
+      </c>
+      <c r="F65">
+        <v>-0.001374706108065134</v>
+      </c>
+      <c r="G65">
+        <v>-0.04812370060848176</v>
+      </c>
+      <c r="H65">
+        <v>-0.0612434456092702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.008835292199367859</v>
+        <v>0.008492087045650878</v>
       </c>
       <c r="C66">
-        <v>0.09540836035642375</v>
+        <v>0.1266561997880968</v>
       </c>
       <c r="D66">
-        <v>-0.1293522585986134</v>
+        <v>0.004663585608632333</v>
       </c>
       <c r="E66">
-        <v>0.06576607930018398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.1280260259509443</v>
+      </c>
+      <c r="F66">
+        <v>-0.01719937055108462</v>
+      </c>
+      <c r="G66">
+        <v>0.00792129271146432</v>
+      </c>
+      <c r="H66">
+        <v>-0.0006911564702690593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01352548621543688</v>
+        <v>0.01580066245592465</v>
       </c>
       <c r="C67">
-        <v>0.02409418888645795</v>
+        <v>0.04202121739704903</v>
       </c>
       <c r="D67">
-        <v>-0.03654600030319322</v>
+        <v>-0.004927095372149583</v>
       </c>
       <c r="E67">
-        <v>0.007544650634196758</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.05282787976245731</v>
+      </c>
+      <c r="F67">
+        <v>0.02018002801883275</v>
+      </c>
+      <c r="G67">
+        <v>-0.01499772406277304</v>
+      </c>
+      <c r="H67">
+        <v>0.03525244952957549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2452931354452848</v>
+        <v>0.2812458903027245</v>
       </c>
       <c r="C68">
-        <v>-0.07500912304369335</v>
+        <v>-0.0589085609355457</v>
       </c>
       <c r="D68">
-        <v>-0.01325782293827523</v>
+        <v>0.02370830181376076</v>
       </c>
       <c r="E68">
-        <v>0.03338330743217947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.03108793553852275</v>
+      </c>
+      <c r="F68">
+        <v>-0.06193434179017356</v>
+      </c>
+      <c r="G68">
+        <v>-0.003674690008525069</v>
+      </c>
+      <c r="H68">
+        <v>0.0305883908206162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.02220574793404277</v>
+        <v>0.01096203421638047</v>
       </c>
       <c r="C69">
-        <v>0.1321578206048619</v>
+        <v>0.1118189082811652</v>
       </c>
       <c r="D69">
-        <v>-0.05040727235051843</v>
+        <v>-0.01089441262718582</v>
       </c>
       <c r="E69">
-        <v>-0.0004386941101254515</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.006352615176443852</v>
+      </c>
+      <c r="F69">
+        <v>0.0224371687976648</v>
+      </c>
+      <c r="G69">
+        <v>0.006172243490748196</v>
+      </c>
+      <c r="H69">
+        <v>0.02572578925565557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2685719519530522</v>
+        <v>0.2730568670094468</v>
       </c>
       <c r="C71">
-        <v>-0.0937950619806318</v>
+        <v>-0.07838159808297639</v>
       </c>
       <c r="D71">
-        <v>-0.009559789779071333</v>
+        <v>0.01291026122437069</v>
       </c>
       <c r="E71">
-        <v>-0.01371339070106902</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008725098253305768</v>
+      </c>
+      <c r="F71">
+        <v>-0.03844609006764559</v>
+      </c>
+      <c r="G71">
+        <v>-0.008755464482605207</v>
+      </c>
+      <c r="H71">
+        <v>0.04715491948003782</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0717416132755993</v>
+        <v>0.06187217647205216</v>
       </c>
       <c r="C72">
-        <v>0.1163276121144673</v>
+        <v>0.1330731130871099</v>
       </c>
       <c r="D72">
-        <v>-0.08681922208719765</v>
+        <v>-0.0235532802733125</v>
       </c>
       <c r="E72">
-        <v>0.1154174155516488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07298420526507865</v>
+      </c>
+      <c r="F72">
+        <v>0.0368442434384969</v>
+      </c>
+      <c r="G72">
+        <v>-0.01967140896399529</v>
+      </c>
+      <c r="H72">
+        <v>-0.04871702022905347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1302628987412468</v>
+        <v>0.1497969510895398</v>
       </c>
       <c r="C73">
-        <v>0.1185959328972832</v>
+        <v>0.1710756832951442</v>
       </c>
       <c r="D73">
-        <v>-0.156058225940324</v>
+        <v>-0.08035567813441774</v>
       </c>
       <c r="E73">
-        <v>0.275700656850231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2369551900246803</v>
+      </c>
+      <c r="F73">
+        <v>0.3529681551856627</v>
+      </c>
+      <c r="G73">
+        <v>-0.03176014268495864</v>
+      </c>
+      <c r="H73">
+        <v>-0.3541055216612766</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.05598193277168204</v>
+        <v>0.04408294345862124</v>
       </c>
       <c r="C74">
-        <v>0.1448134805628287</v>
+        <v>0.1375896002793216</v>
       </c>
       <c r="D74">
-        <v>0.05722275026915145</v>
+        <v>-0.03135347828904715</v>
       </c>
       <c r="E74">
-        <v>-0.03058679648975981</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.07990827376084757</v>
+      </c>
+      <c r="F74">
+        <v>0.009966330557393639</v>
+      </c>
+      <c r="G74">
+        <v>0.003909926563748993</v>
+      </c>
+      <c r="H74">
+        <v>0.03544431377428299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.141774803540663</v>
+        <v>0.08884048722068159</v>
       </c>
       <c r="C75">
-        <v>0.2548939545081801</v>
+        <v>0.2439497176721224</v>
       </c>
       <c r="D75">
-        <v>0.02879068521620913</v>
+        <v>-0.02286512078441805</v>
       </c>
       <c r="E75">
-        <v>-0.1262537824736795</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1698876634219847</v>
+      </c>
+      <c r="F75">
+        <v>0.1253369341403042</v>
+      </c>
+      <c r="G75">
+        <v>0.02015228246001462</v>
+      </c>
+      <c r="H75">
+        <v>0.2473068394880333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.0745306343875662</v>
+        <v>0.05167018950835377</v>
       </c>
       <c r="C76">
-        <v>0.1764381330686735</v>
+        <v>0.1745360894123258</v>
       </c>
       <c r="D76">
-        <v>-0.005164586269615068</v>
+        <v>-0.0307240096761455</v>
       </c>
       <c r="E76">
-        <v>-0.04312583823416648</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.06792887307211055</v>
+      </c>
+      <c r="F76">
+        <v>0.06710996242276655</v>
+      </c>
+      <c r="G76">
+        <v>0.04454274787562244</v>
+      </c>
+      <c r="H76">
+        <v>0.08195641109671686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01399804144049582</v>
+        <v>0.004336421148762705</v>
       </c>
       <c r="C77">
-        <v>0.1308946378421057</v>
+        <v>0.1653770759284346</v>
       </c>
       <c r="D77">
-        <v>-0.2804380613325322</v>
+        <v>0.939949704842776</v>
       </c>
       <c r="E77">
-        <v>-0.7911194831692016</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.145678809837525</v>
+      </c>
+      <c r="F77">
+        <v>0.07463573632306472</v>
+      </c>
+      <c r="G77">
+        <v>-0.09735919309188426</v>
+      </c>
+      <c r="H77">
+        <v>-0.1273180938542127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.01752024104885306</v>
+        <v>0.02248796051338438</v>
       </c>
       <c r="C78">
-        <v>0.09788024591302251</v>
+        <v>0.105618041920407</v>
       </c>
       <c r="D78">
-        <v>-0.1130793969294327</v>
+        <v>-0.02123973092428476</v>
       </c>
       <c r="E78">
-        <v>0.01630460426950916</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0787078043093577</v>
+      </c>
+      <c r="F78">
+        <v>-0.0664291207617386</v>
+      </c>
+      <c r="G78">
+        <v>0.0592545443895329</v>
+      </c>
+      <c r="H78">
+        <v>0.07555033820054523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.05997538178854396</v>
+        <v>0.05087885783512096</v>
       </c>
       <c r="C79">
-        <v>0.3316622080025921</v>
+        <v>0.2626648763592732</v>
       </c>
       <c r="D79">
-        <v>0.6769385231347872</v>
+        <v>-0.1697402218757096</v>
       </c>
       <c r="E79">
-        <v>0.04880552279558945</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.4485993912535629</v>
+      </c>
+      <c r="F79">
+        <v>-0.5009087201819962</v>
+      </c>
+      <c r="G79">
+        <v>-0.3356239710043769</v>
+      </c>
+      <c r="H79">
+        <v>-0.5100149001282457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004919949595025145</v>
+        <v>0.008335297495397466</v>
       </c>
       <c r="C80">
-        <v>0.0493289198482415</v>
+        <v>0.05078406952260509</v>
       </c>
       <c r="D80">
-        <v>-0.02664137880167993</v>
+        <v>-0.03503362415636641</v>
       </c>
       <c r="E80">
-        <v>0.06521132939790569</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.05572865447498356</v>
+      </c>
+      <c r="F80">
+        <v>0.01351820892389418</v>
+      </c>
+      <c r="G80">
+        <v>0.05830176844302413</v>
+      </c>
+      <c r="H80">
+        <v>-0.04369248954198172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.05545450102782429</v>
+        <v>0.02752448241640153</v>
       </c>
       <c r="C81">
-        <v>0.1682433311858861</v>
+        <v>0.1576562437510983</v>
       </c>
       <c r="D81">
-        <v>0.0656160189832931</v>
+        <v>-0.0320072434879481</v>
       </c>
       <c r="E81">
-        <v>-0.05446607247644124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1104783291421067</v>
+      </c>
+      <c r="F81">
+        <v>-0.0002616211101860671</v>
+      </c>
+      <c r="G81">
+        <v>0.0437660882482693</v>
+      </c>
+      <c r="H81">
+        <v>0.0943287687967508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1023706713606548</v>
+        <v>0.06489248701800474</v>
       </c>
       <c r="C82">
-        <v>0.2655176413453849</v>
+        <v>0.2251698291617492</v>
       </c>
       <c r="D82">
-        <v>0.03155883302437736</v>
+        <v>-0.03829995716362796</v>
       </c>
       <c r="E82">
-        <v>-0.09340321792440114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1534044063416127</v>
+      </c>
+      <c r="F82">
+        <v>0.07598658316187448</v>
+      </c>
+      <c r="G82">
+        <v>0.1001769223815714</v>
+      </c>
+      <c r="H82">
+        <v>0.15376844120854</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01957391786287641</v>
+        <v>-0.006052349861120869</v>
       </c>
       <c r="C83">
-        <v>0.05765909051829054</v>
+        <v>0.02140632023466385</v>
       </c>
       <c r="D83">
-        <v>-0.01310676530191338</v>
+        <v>0.07536256210909741</v>
       </c>
       <c r="E83">
-        <v>-0.07569293355311039</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08967544631172791</v>
+      </c>
+      <c r="F83">
+        <v>-0.2422575646918644</v>
+      </c>
+      <c r="G83">
+        <v>0.8680102479670012</v>
+      </c>
+      <c r="H83">
+        <v>-0.2553898004805809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002589992802829324</v>
+        <v>-0.002998127693102561</v>
       </c>
       <c r="C84">
-        <v>0.01018804230951018</v>
+        <v>0.02524082855248381</v>
       </c>
       <c r="D84">
-        <v>-0.02017146267388729</v>
+        <v>0.004001527244092458</v>
       </c>
       <c r="E84">
-        <v>0.02437202754990481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.04576962822919382</v>
+      </c>
+      <c r="F84">
+        <v>-0.05719677118673499</v>
+      </c>
+      <c r="G84">
+        <v>-0.02776205631217719</v>
+      </c>
+      <c r="H84">
+        <v>0.06145859395626468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.06982300572242006</v>
+        <v>0.04667899162672117</v>
       </c>
       <c r="C85">
-        <v>0.1802907918206235</v>
+        <v>0.1689273541460657</v>
       </c>
       <c r="D85">
-        <v>0.09607465338843188</v>
+        <v>-0.0869534544641876</v>
       </c>
       <c r="E85">
-        <v>0.02079130885995549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1215554109935796</v>
+      </c>
+      <c r="F85">
+        <v>0.001503119604008656</v>
+      </c>
+      <c r="G85">
+        <v>0.007386663530021964</v>
+      </c>
+      <c r="H85">
+        <v>0.0580162271290206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02516192122701491</v>
+        <v>0.0159484949325096</v>
       </c>
       <c r="C86">
-        <v>0.02920813248346412</v>
+        <v>0.05414151340448455</v>
       </c>
       <c r="D86">
-        <v>-0.07805673802328472</v>
+        <v>0.03739291456832568</v>
       </c>
       <c r="E86">
-        <v>-0.05192074512159207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.05106462144440078</v>
+      </c>
+      <c r="F86">
+        <v>-0.08529596059653752</v>
+      </c>
+      <c r="G86">
+        <v>-0.03149404711527203</v>
+      </c>
+      <c r="H86">
+        <v>0.054133370962837</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01786324416634272</v>
+        <v>0.01242011367515403</v>
       </c>
       <c r="C87">
-        <v>0.06648287203110789</v>
+        <v>0.08549859619011511</v>
       </c>
       <c r="D87">
-        <v>-0.1193567582662505</v>
+        <v>0.03154261906954096</v>
       </c>
       <c r="E87">
-        <v>0.03722501525503216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1092323225760319</v>
+      </c>
+      <c r="F87">
+        <v>-0.08830514331085165</v>
+      </c>
+      <c r="G87">
+        <v>-5.648677217275443e-05</v>
+      </c>
+      <c r="H87">
+        <v>0.05054749841590727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02984818666810592</v>
+        <v>0.03354797946212683</v>
       </c>
       <c r="C88">
-        <v>0.07444749616054896</v>
+        <v>0.08099639779973569</v>
       </c>
       <c r="D88">
-        <v>0.001558010872437166</v>
+        <v>-0.01887506274146932</v>
       </c>
       <c r="E88">
-        <v>0.03048008067433085</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01512619921704115</v>
+      </c>
+      <c r="F88">
+        <v>0.004898742231256647</v>
+      </c>
+      <c r="G88">
+        <v>-0.002297603573116635</v>
+      </c>
+      <c r="H88">
+        <v>0.00212547177622102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.4196266488070948</v>
+        <v>0.403295817335301</v>
       </c>
       <c r="C89">
-        <v>-0.1657709724436474</v>
+        <v>-0.139245865838195</v>
       </c>
       <c r="D89">
-        <v>-0.007376274626986013</v>
+        <v>0.04149540528079438</v>
       </c>
       <c r="E89">
-        <v>-0.01811854499105274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01242927685230816</v>
+      </c>
+      <c r="F89">
+        <v>-0.09318393078740954</v>
+      </c>
+      <c r="G89">
+        <v>0.09438648947282885</v>
+      </c>
+      <c r="H89">
+        <v>-0.0112802806480503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.3292991601546799</v>
+        <v>0.3269112462364766</v>
       </c>
       <c r="C90">
-        <v>-0.1171286346484736</v>
+        <v>-0.08904693895729708</v>
       </c>
       <c r="D90">
-        <v>-0.06604724246851619</v>
+        <v>0.02455668464026777</v>
       </c>
       <c r="E90">
-        <v>-0.01477120537016841</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.03838645625536328</v>
+      </c>
+      <c r="F90">
+        <v>-0.01329042145702157</v>
+      </c>
+      <c r="G90">
+        <v>0.009208139194283194</v>
+      </c>
+      <c r="H90">
+        <v>0.04153992868413019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08331745720052743</v>
+        <v>0.06044107049437684</v>
       </c>
       <c r="C91">
-        <v>0.2269212618240542</v>
+        <v>0.190974120989909</v>
       </c>
       <c r="D91">
-        <v>0.09073405363905671</v>
+        <v>-0.02637985492852297</v>
       </c>
       <c r="E91">
-        <v>-0.06841379442647956</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1568952408249141</v>
+      </c>
+      <c r="F91">
+        <v>-0.004079065096571616</v>
+      </c>
+      <c r="G91">
+        <v>0.02949557821030454</v>
+      </c>
+      <c r="H91">
+        <v>0.03819373185838497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.3252772031794403</v>
+        <v>0.3429454223390264</v>
       </c>
       <c r="C92">
-        <v>-0.1256757788764056</v>
+        <v>-0.1138075558225485</v>
       </c>
       <c r="D92">
-        <v>0.01121997653252363</v>
+        <v>0.04815285981757724</v>
       </c>
       <c r="E92">
-        <v>-0.07697039322714075</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0164525407743274</v>
+      </c>
+      <c r="F92">
+        <v>-0.06520915356046436</v>
+      </c>
+      <c r="G92">
+        <v>-0.07323530765408272</v>
+      </c>
+      <c r="H92">
+        <v>0.05347175727611583</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.3446591157452275</v>
+        <v>0.3326498993341239</v>
       </c>
       <c r="C93">
-        <v>-0.1308824408130845</v>
+        <v>-0.1134502868182799</v>
       </c>
       <c r="D93">
-        <v>0.02793376465548092</v>
+        <v>-0.01752525926335131</v>
       </c>
       <c r="E93">
-        <v>0.02413596298352349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01848568341739578</v>
+      </c>
+      <c r="F93">
+        <v>-0.01001764617589321</v>
+      </c>
+      <c r="G93">
+        <v>-0.05161597278095461</v>
+      </c>
+      <c r="H93">
+        <v>-0.00183496907375343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.14317099427703</v>
+        <v>0.105939594577428</v>
       </c>
       <c r="C94">
-        <v>0.2872834023528633</v>
+        <v>0.2670218662609868</v>
       </c>
       <c r="D94">
-        <v>0.09197207902959044</v>
+        <v>-0.08149962071908663</v>
       </c>
       <c r="E94">
-        <v>-0.02578867545405311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.2667408580400341</v>
+      </c>
+      <c r="F94">
+        <v>0.1652183451717426</v>
+      </c>
+      <c r="G94">
+        <v>0.1085181509100679</v>
+      </c>
+      <c r="H94">
+        <v>0.3179250667117982</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.001478643033923036</v>
+        <v>0.01817988070474676</v>
       </c>
       <c r="C95">
-        <v>0.09584948036815163</v>
+        <v>0.120870451209387</v>
       </c>
       <c r="D95">
-        <v>-0.1334885570653544</v>
+        <v>0.1026729569827629</v>
       </c>
       <c r="E95">
-        <v>-0.1805782632083691</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.05650614985291921</v>
+      </c>
+      <c r="F95">
+        <v>0.1221897735065021</v>
+      </c>
+      <c r="G95">
+        <v>0.02753316982511576</v>
+      </c>
+      <c r="H95">
+        <v>0.03121726893045438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002191904257048661</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.00175562818582815</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.004486888920821092</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.004621124900846033</v>
+      </c>
+      <c r="F97">
+        <v>0.0002769650126814357</v>
+      </c>
+      <c r="G97">
+        <v>-0.005193431292921226</v>
+      </c>
+      <c r="H97">
+        <v>0.003987798145890646</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1089218309648463</v>
+        <v>0.1298059979597369</v>
       </c>
       <c r="C98">
-        <v>0.1110329834074476</v>
+        <v>0.1500526033176847</v>
       </c>
       <c r="D98">
-        <v>-0.1212305960478357</v>
+        <v>-0.06764780560322796</v>
       </c>
       <c r="E98">
-        <v>0.1848190068923716</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1704257348626179</v>
+      </c>
+      <c r="F98">
+        <v>0.2792160300230863</v>
+      </c>
+      <c r="G98">
+        <v>-0.03947868812018115</v>
+      </c>
+      <c r="H98">
+        <v>-0.2974654110172724</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00201118291622844</v>
+        <v>0.003816626387744093</v>
       </c>
       <c r="C101">
-        <v>0.02929943924770974</v>
+        <v>0.05403039297064279</v>
       </c>
       <c r="D101">
-        <v>-0.06077150548073453</v>
+        <v>-0.01602302358203406</v>
       </c>
       <c r="E101">
-        <v>0.08009159670311056</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1161122371496989</v>
+      </c>
+      <c r="F101">
+        <v>-0.04380819304590292</v>
+      </c>
+      <c r="G101">
+        <v>0.03635529492950774</v>
+      </c>
+      <c r="H101">
+        <v>-0.05911860939951263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.03899002504470763</v>
+        <v>0.01524491871859075</v>
       </c>
       <c r="C102">
-        <v>0.1472923811380586</v>
+        <v>0.1030408067090558</v>
       </c>
       <c r="D102">
-        <v>-0.01180811148246659</v>
+        <v>-0.01163655471446182</v>
       </c>
       <c r="E102">
-        <v>-0.03159293865521098</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.07139275118331158</v>
+      </c>
+      <c r="F102">
+        <v>0.06164175067225366</v>
+      </c>
+      <c r="G102">
+        <v>0.04556488068771626</v>
+      </c>
+      <c r="H102">
+        <v>0.04379992789819016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
